--- a/Output_testing/R1_201907/Country/HKD/MN/OMAN_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/OMAN_201907_HKD_MN.xlsx
@@ -550,11 +550,15 @@
       <c r="E7" s="8" t="n">
         <v>2.168653</v>
       </c>
-      <c r="F7" s="8" t="n">
-        <v>0.342373</v>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="G7" s="8" t="n">
-        <v>0.095723</v>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="H7" s="9" t="n">
         <v>-63.9785624033814</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/OMAN_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/OMAN_201907_HKD_MN.xlsx
@@ -814,136 +814,449 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>3.430708</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>0.3456458139605294</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>181.070614</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>16.72176540639721</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>172.338478</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>13.84308126692468</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>365.056757</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>36.440091697525</v>
+      </c>
+      <c r="K18" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>502.708024</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>50.64812398489448</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>482.018408</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>44.51411834358202</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>471.059592</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>37.83784265299352</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>271.821325</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>27.13329864030634</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>0.6596366178909019</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>248.0775</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>24.9939515146125</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>186.03875</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>17.18056986319923</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>310.26076</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>24.92168298374908</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>248.518693</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>24.80722185747424</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-19.86384566185635</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>52.323395</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>5.271612289344735</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>42.229016</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>3.899824953898895</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>94.324044</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>7.576575014878452</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>35.046866</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>3.498390281133383</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-35.95925921059924</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>42.44127</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>4.27598248369392</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>36.329232</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>3.354983348643081</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>51.083473</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>4.103277900224655</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>20.147688</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>2.011149181969871</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>-35.31102464518601</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>PETROLEUM OILS AND OILS OBTAINED FROM BITUMINOUS MINERALS; PREPARATIONS, N.E.S., CONTAINING BY WEIGHT 70% OR MORE OF PETROLEUM OILS OR OF OILS FROM BITUMINOUS MINERALS</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>4.725347</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>0.4760814415161377</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>11.241817</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>1.03817523154612</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>26.524476</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>2.130577460656194</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>11.566512</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>1.154573226816134</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-47.32997901261334</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>4.413452</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0.4446578399897999</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>6.544316</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>0.6043637588666475</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>12.960477</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>1.041049790222171</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>8.149440999999999</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>0.8134800181867877</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>0.139713698737709</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>12.077976</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>1.216863063109929</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>16.070095</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>1.484063883764799</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>17.077042</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>1.371712707156936</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>6.708341</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>0.6696289179445774</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-27.71917201068297</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>5.132415</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.5170937778027832</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>2.165769</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.2000075017277375</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>3.617239</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0.2905545762037505</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>5.367986</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0.5358342184336843</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>173.2024726720473</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>728</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MACHINERY AND EQUIPMENT SPECIALIZED FOR PARTICULAR INDUSTRIES, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D27" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F27" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H27" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>3.020192</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.3014766096334204</v>
+      </c>
+      <c r="K27" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>117.22005</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>11.80998779107518</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>118.962481</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>10.98611561258077</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>85.592223</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>6.875191846627195</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>26.395975</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>2.634855350576561</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-55.00694541307425</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -975,136 +1288,579 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>PETROLEUM OILS AND OILS OBTAINED FROM BITUMINOUS MINERALS; PREPARATIONS, N.E.S., CONTAINING BY WEIGHT 70% OR MORE OF PETROLEUM OILS OR OF OILS FROM BITUMINOUS MINERALS</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>7.601446612251937</v>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>63.64301160640598</v>
+      </c>
+      <c r="K31" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>0.565578</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>9.39427959799025</v>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>85.91010389253826</v>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>36.25252029292855</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>-53.21478165909428</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>0.7823001964470768</v>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>0.9943038374511736</v>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>1.932979528175411</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>0.1044681006654618</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>-98.48896947718345</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>12.15691657928633</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>2.120785</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>35.22634766066529</v>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>1.276518</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>58.86225228286867</v>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>ALCOHOLIC BEVERAGES</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="n">
+        <v>1.094716</v>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>18.18328892636116</v>
+      </c>
+      <c r="E36" s="8" t="n">
+        <v>0.685875</v>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>31.6267747767854</v>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>745</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>OTHER NON-ELECTRICAL MACHINERY, TOOLS AND MECHANICAL APPARATUS, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>0.9152224906428091</v>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>TUBES, PIPES AND HOSES OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="n">
+        <v>1.779268</v>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>29.55373276852515</v>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>6.860050850011071</v>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>LIVE ANIMALS OTHER THAN ANIMALS OF DIVISION 03</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1136,136 +1892,449 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>2.86513</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>0.2904251175265698</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>181.070614</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>16.75532193260752</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>172.044345</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>13.82325659286401</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>365.022055</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>36.44010962187851</v>
+      </c>
+      <c r="K44" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>502.708024</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>50.95721204683545</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>482.018408</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>44.60344737928023</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>471.059592</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>37.84825133744344</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>271.821325</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>27.13589150267719</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>0.6596366178909019</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>248.0775</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>25.14648099499765</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>186.03875</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>17.21504709864124</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>310.26076</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>24.92853860542174</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>248.518693</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>24.80959243957457</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-19.86384566185635</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>51.910389</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>5.261918595726881</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>42.229016</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>3.907650956423188</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>94.324044</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>7.578659229331802</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>35.046866</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>3.498724587869866</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-35.95925921059924</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>42.44127</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>4.302077332521345</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>36.329232</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>3.361715986252673</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>51.083473</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>4.104406657095533</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>20.147688</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>2.011341367708332</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-35.31102464518601</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>PETROLEUM OILS AND OILS OBTAINED FROM BITUMINOUS MINERALS; PREPARATIONS, N.E.S., CONTAINING BY WEIGHT 70% OR MORE OF PETROLEUM OILS OR OF OILS FROM BITUMINOUS MINERALS</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>4.725347</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>0.4789868026333269</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>11.076968</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>1.025004338236748</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>26.524476</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>2.131163554020117</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>11.505591</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>1.148601821620063</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-47.60739283871514</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>4.413452</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>0.4473714336863858</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>6.544316</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>0.6055765703026463</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>12.960477</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>1.041336169095894</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>8.149440999999999</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>0.8135577544678259</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>0.139713698737709</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>12.077976</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>1.224289159403968</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>16.070095</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>1.487042039922538</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>17.077042</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>1.372090046976642</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>6.708341</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>0.6696929077913993</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-27.71917201068297</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>5.132415</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.5202494230873048</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>2.165769</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.2004088682587748</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>3.617239</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>0.2906345038816289</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>5.367986</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>0.5358854228375575</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>173.2024726720473</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>728</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MACHINERY AND EQUIPMENT SPECIALIZED FOR PARTICULAR INDUSTRIES, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D53" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F53" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H53" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>3.020192</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.3015054187866005</v>
+      </c>
+      <c r="K53" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>112.178183</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>11.37098909358111</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>116.958677</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>10.82274060188949</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>85.543983</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>6.873207177978424</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>26.395875</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>2.635097154788092</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-54.9700890692649</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1297,136 +2366,461 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>248</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>49.53508516252604</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>248</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>48.60137405608758</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>310.02325</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>39.70159252774635</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>261.987662</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>66.61966605884292</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>40.83597722327721</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>81.03162</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>16.18511369982842</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>56.871707</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>11.14533510127103</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>204.607938</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>26.20210252753105</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>27.628857</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>7.025617973290379</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-84.43440580770429</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>781</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>MOTOR CARS AND OTHER MOTOR VEHICLES PRINCIPALLY DESIGNED FOR THE TRANSPORT OF PERSONS (OTHER THAN PUBLIC-TRANSPORT TYPE VEHICLES), INCLUDING STATION WAGONS AND RACING CARS</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>11.976177</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>2.392100595227765</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>42.044145</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>8.239529104892679</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>17.735588</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>2.271220264983313</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>26.895178</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>6.839054035121467</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>214.5915226596803</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>773</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>EQUIPMENT FOR DISTRIBUTING ELECTRICITY, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>53.267114</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>10.63947995303219</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>35.013664</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>6.861742665879708</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>72.423619</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>9.274572184256339</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>23.353722</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>5.938513092540417</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-49.8232976549686</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>792</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>AIRCRAFT AND ASSOCIATED EQUIPMENT; SPACECRAFT (INCLUDING SATELLITES) AND SPACECRAFT LAUNCH VEHICLES; AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>21.810149</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>5.546004846112208</v>
+      </c>
+      <c r="K61" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>7.103123</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>1.418765333568135</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>7.397938</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>1.449798193474776</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>118.178878</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>15.13399288518602</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>11.635549</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>2.958751503310503</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>-88.15298280937897</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>ALUMINIUM</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>74.252613</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>14.83108672780278</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>53.910108</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>10.56494082383903</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>16.886986</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>2.162548251441649</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>7.371892</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>1.874565311636148</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-56.34572090010616</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>3.585456</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>0.9117295049897225</v>
+      </c>
+      <c r="K64" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>15.244723</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>3.044954242274676</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>37.455759</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>7.34032803916802</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>10.85663</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>1.390300567730023</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>3.401098</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>0.864849937068405</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-23.28190594646219</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>1.63796</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>0.3271632584387547</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>9.185442999999999</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>1.800101415781739</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>19.474685</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>2.493929111691507</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>2.263275</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>0.5755180360338027</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-77.280591359623</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>8.129030999999999</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>1.623678398684735</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>20.365336</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>3.991061744814139</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>10.696089</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>1.369741679433752</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>3.325906</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>0.8457297010540216</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-20.09593563673039</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
